--- a/inputs/AddictO_Defs.xlsx
+++ b/inputs/AddictO_Defs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/New/addiction-ontology/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B30DC8A6-526E-504C-8C2B-25297A0214D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5887FED2-B3A4-8D46-AE95-5E6D7DADC698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9292" uniqueCount="3594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9293" uniqueCount="3595">
   <si>
     <t>ID</t>
   </si>
@@ -10830,6 +10830,9 @@
   </si>
   <si>
     <t>Double-blind study</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -11441,8 +11444,8 @@
   <dimension ref="A1:S2821"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A729" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B671" sqref="B671"/>
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A283" sqref="A283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19119,7 +19122,9 @@
       <c r="R282" s="11"/>
     </row>
     <row r="283" spans="1:18" s="13" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A283" s="11"/>
+      <c r="A283" s="11" t="s">
+        <v>3594</v>
+      </c>
       <c r="B283" s="11" t="s">
         <v>1663</v>
       </c>

--- a/inputs/AddictO_Defs.xlsx
+++ b/inputs/AddictO_Defs.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9293" uniqueCount="3595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9294" uniqueCount="3596">
   <si>
     <t>ID</t>
   </si>
@@ -10832,6 +10832,9 @@
   </si>
   <si>
     <t>******</t>
+  </si>
+  <si>
+    <t>*******</t>
   </si>
 </sst>
 </file>
@@ -11444,7 +11447,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A285" sqref="A285"/>
+      <selection pane="bottomLeft" activeCell="C286" sqref="C286"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19149,7 +19152,9 @@
       <c r="R283" s="11"/>
     </row>
     <row r="284" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="11"/>
+      <c r="A284" s="11" t="s">
+        <v>3595</v>
+      </c>
       <c r="B284" s="11" t="s">
         <v>1664</v>
       </c>

--- a/inputs/AddictO_Defs.xlsx
+++ b/inputs/AddictO_Defs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\User3\Work\Projects\Addiction Ontology and PAT\Ontology development\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\User3\Work\Github\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9294" uniqueCount="3596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9295" uniqueCount="3597">
   <si>
     <t>ID</t>
   </si>
@@ -10835,6 +10835,9 @@
   </si>
   <si>
     <t>*******</t>
+  </si>
+  <si>
+    <t>********</t>
   </si>
 </sst>
 </file>
@@ -11447,7 +11450,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C286" sqref="C286"/>
+      <selection pane="bottomLeft" activeCell="A285" sqref="A285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19180,7 +19183,9 @@
       <c r="R284" s="11"/>
     </row>
     <row r="285" spans="1:18" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="11"/>
+      <c r="A285" s="11" t="s">
+        <v>3596</v>
+      </c>
       <c r="B285" s="11" t="s">
         <v>1665</v>
       </c>

--- a/inputs/AddictO_Defs.xlsx
+++ b/inputs/AddictO_Defs.xlsx
@@ -10844,7 +10844,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -10962,6 +10962,19 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -10996,7 +11009,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -11109,6 +11122,21 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11449,8 +11477,8 @@
   <dimension ref="A1:S2822"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C85" sqref="C85"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11540,7 +11568,7 @@
       <c r="C2" s="24" t="s">
         <v>1129</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="39" t="s">
         <v>1048</v>
       </c>
       <c r="E2" s="13" t="s">
@@ -11567,38 +11595,38 @@
       <c r="R2" s="14"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:19" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>3594</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="39" t="s">
         <v>1048</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="41" t="s">
         <v>3595</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="39" t="s">
         <v>3596</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="11"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="43"/>
     </row>
     <row r="4" spans="1:19" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
@@ -11608,7 +11636,7 @@
       <c r="C4" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="40" t="s">
         <v>3529</v>
       </c>
       <c r="E4" s="12" t="s">

--- a/inputs/AddictO_Defs.xlsx
+++ b/inputs/AddictO_Defs.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeed\Documents\GitHub\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\User3\Work\Github\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9305" uniqueCount="3601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9306" uniqueCount="3602">
   <si>
     <t>ID</t>
   </si>
@@ -10851,11 +10851,14 @@
   <si>
     <t>https://www.rcpmedicalcare.org.uk/designing-services/specialties/acute-internal-medicine/services-delivered/acute-medical-unit/</t>
   </si>
+  <si>
+    <t>*</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -11191,7 +11194,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11493,7 +11496,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11576,7 +11579,9 @@
       </c>
     </row>
     <row r="2" spans="1:19" s="29" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
+      <c r="A2" s="13" t="s">
+        <v>3601</v>
+      </c>
       <c r="B2" s="13" t="s">
         <v>1128</v>
       </c>

--- a/inputs/AddictO_Defs.xlsx
+++ b/inputs/AddictO_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B99B178-2E34-F248-AE6D-ABC4833F09E8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686AAFFC-B061-F444-96FA-3E05CD229B5D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10853,7 +10853,7 @@
     <t>https://www.rcpmedicalcare.org.uk/designing-services/specialties/acute-internal-medicine/services-delivered/acute-medical-unit/</t>
   </si>
   <si>
-    <t>**</t>
+    <t>** SC</t>
   </si>
 </sst>
 </file>
